--- a/defense/linError.xlsx
+++ b/defense/linError.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="linError" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>run</t>
   </si>
@@ -45,12 +45,52 @@
   <si>
     <t>w/ 2's and 1/2:</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>yay that's it (pg. 198 of Taylor)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +222,42 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -528,9 +604,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -584,6 +667,456 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>lin</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>linError!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.32368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.331299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.431100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6672699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.131999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4937699999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.6632</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.070799999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3137300000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.473600000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5478399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8966200000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.42841</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8966200000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3137300000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.26397</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2359000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59714900000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.213000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>linError!$E$2:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1985.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52996.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21646.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000.9050000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8240.6550000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42994.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40606.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970.595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39710.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3821.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7344.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3642.6149999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7344.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1970.595</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1895.9549999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13853.85</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>895.72349999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27319.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>linError!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.32368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.331299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.431100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6672699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.131999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4937699999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.6632</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.070799999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3137300000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.473600000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5478399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8966200000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.42841</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8966200000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3137300000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.26397</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2359000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59714900000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.213000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>linError!$D$2:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>4160.7142860000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24697.71429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1457.9071429999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21995.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5682.442857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72080</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7983.5714289999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83871.428570000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-113.7085714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44473.285709999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3563.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66762.714290000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1554.7285710000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16442.21429</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1518.671429</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9028.5714289999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2700.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>511.61500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11826.57143</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8709.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7868</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13080.57143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="173368448"/>
+        <c:axId val="173367872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="173368448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173367872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="173367872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173368448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -873,13 +1406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -888,10 +1424,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -911,10 +1447,10 @@
       <c r="B2">
         <v>5825</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.32368</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>4160.7142860000004</v>
       </c>
       <c r="E2">
@@ -922,6 +1458,14 @@
       </c>
       <c r="F2">
         <v>-2175.1942859999999</v>
+      </c>
+      <c r="H2">
+        <f>(D2-1500*C2)^2</f>
+        <v>4731470.1818470517</v>
+      </c>
+      <c r="I2">
+        <f>C2^2</f>
+        <v>1.7521287423999998</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -931,10 +1475,10 @@
       <c r="B3">
         <v>34576.800000000003</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>35.331299999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>24697.71429</v>
       </c>
       <c r="E3">
@@ -942,6 +1486,14 @@
       </c>
       <c r="F3">
         <v>28299.235710000001</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H23" si="0">(D3-1500*C3)^2</f>
+        <v>800846741.7701391</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I23" si="1">C3^2</f>
+        <v>1248.3007596899999</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -951,10 +1503,10 @@
       <c r="B4">
         <v>2041.07</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1457.9071429999999</v>
       </c>
       <c r="E4">
@@ -962,6 +1514,14 @@
       </c>
       <c r="F4">
         <v>-1457.9071429999999</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>2125493.2376104221</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -971,10 +1531,10 @@
       <c r="B5">
         <v>30793.7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>14.431100000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>21995.5</v>
       </c>
       <c r="E5">
@@ -982,6 +1542,14 @@
       </c>
       <c r="F5">
         <v>-348.85</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>121696.32249999899</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>208.25664721000001</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
@@ -1002,10 +1570,10 @@
       <c r="B6">
         <v>7955.42</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2.6672699999999998</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>5682.442857</v>
       </c>
       <c r="E6">
@@ -1013,6 +1581,14 @@
       </c>
       <c r="F6">
         <v>-1681.537857</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2827569.5645241532</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>7.1143292528999993</v>
       </c>
       <c r="K6" s="1">
         <v>4160.7142860000004</v>
@@ -1032,10 +1608,10 @@
       <c r="B7">
         <v>100912</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>56.131999999999998</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>72080</v>
       </c>
       <c r="E7">
@@ -1043,6 +1619,14 @@
       </c>
       <c r="F7">
         <v>12118</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>146845924</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>3150.8014239999998</v>
       </c>
       <c r="K7" s="1">
         <v>3563.55</v>
@@ -1055,10 +1639,10 @@
       <c r="B8">
         <v>11177</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>5.4937699999999996</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>7983.5714289999996</v>
       </c>
       <c r="E8">
@@ -1066,6 +1650,14 @@
       </c>
       <c r="F8">
         <v>257.08357139999998</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>66091.962478111629</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>30.181508812899995</v>
       </c>
       <c r="K8" s="1">
         <v>511.61500000000001</v>
@@ -1078,10 +1670,10 @@
       <c r="B9">
         <v>117420</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>28.6632</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>83871.428570000004</v>
       </c>
       <c r="E9">
@@ -1089,6 +1681,14 @@
       </c>
       <c r="F9">
         <v>-40876.628570000001</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1670898763.2497404</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>821.57903423999994</v>
       </c>
       <c r="K9" s="1">
         <v>11826.57143</v>
@@ -1104,10 +1704,10 @@
       <c r="B10">
         <v>-159.19200000000001</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>-113.7085714</v>
       </c>
       <c r="E10">
@@ -1115,6 +1715,14 @@
       </c>
       <c r="F10">
         <v>113.7085714</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>12929.639209828898</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>5682.442857</v>
@@ -1131,10 +1739,10 @@
       <c r="B11">
         <v>62262.6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>27.070799999999998</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>44473.285709999996</v>
       </c>
       <c r="E11">
@@ -1142,6 +1750,14 @@
       </c>
       <c r="F11">
         <v>-3867.0857139999998</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>14954351.888486199</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>732.82821263999995</v>
       </c>
       <c r="K11">
         <v>1554.7285710000001</v>
@@ -1158,10 +1774,10 @@
       <c r="B12">
         <v>4988.97</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1.3137300000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>3563.55</v>
       </c>
       <c r="E12">
@@ -1169,6 +1785,14 @@
       </c>
       <c r="F12">
         <v>-1592.9549999999999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2537505.6320250006</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.7258865129000001</v>
       </c>
       <c r="K12">
         <v>-1518.671429</v>
@@ -1181,10 +1805,10 @@
       <c r="B13">
         <v>93467.8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>26.473600000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>66762.714290000004</v>
       </c>
       <c r="E13">
@@ -1192,6 +1816,14 @@
       </c>
       <c r="F13">
         <v>-27052.314289999998</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>731827708.4449383</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>700.85149696000008</v>
       </c>
       <c r="K13">
         <v>7868</v>
@@ -1204,10 +1836,10 @@
       <c r="B14">
         <v>2176.62</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>2.5478399999999999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>1554.7285710000001</v>
       </c>
       <c r="E14">
@@ -1215,6 +1847,14 @@
       </c>
       <c r="F14">
         <v>2267.0314290000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>5139431.5000737803</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>6.4914886655999995</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1224,10 +1864,10 @@
       <c r="B15">
         <v>23019.1</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>4.8966200000000004</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>16442.21429</v>
       </c>
       <c r="E15">
@@ -1235,6 +1875,14 @@
       </c>
       <c r="F15">
         <v>-9097.2842860000001</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>82760581.453080803</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>23.976887424400005</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1244,10 +1892,10 @@
       <c r="B16">
         <v>-2126.14</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>2.42841</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>-1518.671429</v>
       </c>
       <c r="E16">
@@ -1256,18 +1904,26 @@
       <c r="F16">
         <v>5161.2864289999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>26638877.602179568</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>5.8971751280999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>88</v>
       </c>
       <c r="B17">
         <v>12640</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>4.8966200000000004</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>9028.5714289999996</v>
       </c>
       <c r="E17">
@@ -1276,18 +1932,26 @@
       <c r="F17">
         <v>-1683.641429</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>2834648.4614451597</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>23.976887424400005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>90</v>
       </c>
       <c r="B18">
         <v>3781.26</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>2700.9</v>
       </c>
       <c r="E18">
@@ -1296,18 +1960,26 @@
       <c r="F18">
         <v>-2700.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>7294860.8100000005</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>91</v>
       </c>
       <c r="B19">
         <v>716.26099999999997</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>1.3137300000000001</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>511.61500000000001</v>
       </c>
       <c r="E19">
@@ -1316,18 +1988,26 @@
       <c r="F19">
         <v>1458.98</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>2128622.6403999999</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1.7258865129000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>93</v>
       </c>
       <c r="B20">
         <v>16557.2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>1.26397</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>11826.57143</v>
       </c>
       <c r="E20">
@@ -1336,18 +2016,26 @@
       <c r="F20">
         <v>-9930.6164289999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>98617142.679785952</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1.5976201609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>94</v>
       </c>
       <c r="B21">
         <v>12193.3</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>9.2359000000000009</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>8709.5</v>
       </c>
       <c r="E21">
@@ -1356,18 +2044,26 @@
       <c r="F21">
         <v>5144.3500000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>26464336.922500022</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>85.30184881000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>96</v>
       </c>
       <c r="B22">
         <v>11015.2</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>0.59714900000000004</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>7868</v>
       </c>
       <c r="E22">
@@ -1376,18 +2072,26 @@
       <c r="F22">
         <v>-6972.2764999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>48612639.59245225</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0.35658692820100008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>97</v>
       </c>
       <c r="B23">
         <v>18312.8</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>18.213000000000001</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>13080.57143</v>
       </c>
       <c r="E23">
@@ -1395,10 +2099,50 @@
       </c>
       <c r="F23">
         <v>14238.92857</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>202747086.82156226</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>331.71336900000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <f>SUM(H2:H23)</f>
+        <v>3881034474.3769779</v>
+      </c>
+      <c r="I24">
+        <f>SUM(I2:I23)</f>
+        <v>7384.4291781155989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <f>SQRT((1/21)*H24)</f>
+        <v>13594.527040192415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4">
+        <f>D27/SQRT(I24)</f>
+        <v>158.19969361083659</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>